--- a/cldr/main/currency.xlsx
+++ b/cldr/main/currency.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="2650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="2696">
   <si>
     <t xml:space="preserve">WIR евро</t>
   </si>
@@ -6763,6 +6763,9 @@
     <t xml:space="preserve">Тиморское эскудо</t>
   </si>
   <si>
+    <t xml:space="preserve">тимортәи аескудо</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="TPE"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6805,6 +6808,12 @@
     <t xml:space="preserve">тонганской паанги</t>
   </si>
   <si>
+    <t xml:space="preserve">тонгатәи апаанга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тонгатәи апаангақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="TOP"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6874,6 +6883,12 @@
     <t xml:space="preserve">тунисского динара</t>
   </si>
   <si>
+    <t xml:space="preserve">тунистәи адинар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тунистәи адинарқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="TND"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6883,6 +6898,28 @@
     <t xml:space="preserve">турецкой лиры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ҭырқәтәылатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> алира</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ҭырқәтәылатәи алирақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="TRY"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6892,6 +6929,44 @@
     <t xml:space="preserve">турецкой лиры (1922–2005)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ҭырқәтәылатәи алира</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (1922–2005)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ҭырқәтәылатәи алирақәа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (1922–2005)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="TRL"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6916,6 +6991,25 @@
     <t xml:space="preserve">Туркменский манат</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ҭурқменисҭантәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аманат</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="TMM"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6946,6 +7040,12 @@
     <t xml:space="preserve">угандийского шиллинга</t>
   </si>
   <si>
+    <t xml:space="preserve">угандатәи ашиллинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">угандатәи ашиллингқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="UGX"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6979,6 +7079,28 @@
     <t xml:space="preserve">узбекского сума</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">узбеқьисҭантәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> асум</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">узбеқьисҭантәи асумқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="UZS"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -6997,6 +7119,12 @@
     <t xml:space="preserve">украинской гривны</t>
   </si>
   <si>
+    <t xml:space="preserve">украинатәи агривн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">украинатәи агривнқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="UAH"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7036,24 +7164,71 @@
     <t xml:space="preserve">уругвайского песо</t>
   </si>
   <si>
+    <t xml:space="preserve">уругваитәи апесо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уругваитәи апесоқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="UYU"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Уругвайский песо (индекс инфляции)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">уругваитәи апесо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (аиндекс аԥара ахә акаҳара)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="UYI"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Уругвайское старое песо (1975–1993)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ажәытә уругваитәи апесо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (1975–1993)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="UYP"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Условная расчетная единица Чили</t>
   </si>
   <si>
+    <t xml:space="preserve">еилаӡаны аԥхьаӡаратә ак Чили</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="CLF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7111,6 +7286,28 @@
     <t xml:space="preserve">филиппинского песо</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">филиппинтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> апесо</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">филиппинтәи апесоқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="PHP"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7123,6 +7320,9 @@
     <t xml:space="preserve">Финансовый франк Люксембурга</t>
   </si>
   <si>
+    <t xml:space="preserve">финанстәи афранк Лиуксембург</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="LUL"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7141,6 +7341,25 @@
     <t xml:space="preserve">Финская марка</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">финлиандиатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амарка</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="FIM"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7180,6 +7399,12 @@
     <t xml:space="preserve">франка Джибути</t>
   </si>
   <si>
+    <t xml:space="preserve">афранк Џибути</t>
+  </si>
+  <si>
+    <t xml:space="preserve">афранкқәа Джибути</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="DJF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7189,6 +7414,44 @@
     <t xml:space="preserve">франка КФА ВЕАС</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">афранк</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> КФА BEAC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">афранкқәа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> КФА ВЕАС</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="XAF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7198,6 +7461,44 @@
     <t xml:space="preserve">франка КФА ВСЕАО</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">афранк</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> КФА ВСЕАО</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">афранкқәа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> КФА ВСЕАО</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="XOF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7207,6 +7508,44 @@
     <t xml:space="preserve">франка Руанды</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">афранк</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Руанда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">афранкқәа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Руанда</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="RWF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7243,12 +7582,50 @@
     <t xml:space="preserve">Французский UIC-франк</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">франциатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> UIC-афранк</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="XFU"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Французский золотой франк</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">франциатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ахьтәы афранк</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="XFO"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7258,12 +7635,34 @@
     <t xml:space="preserve">французского тихоокеанского франка</t>
   </si>
   <si>
+    <t xml:space="preserve">франциатәи аокеанҭынчтәи афранк</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="XPF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Французский франк</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">франциатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> афранк</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="FRF"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7285,6 +7684,12 @@
     <t xml:space="preserve">фунта острова Святой Елены</t>
   </si>
   <si>
+    <t xml:space="preserve">афунт Иԥшьоу Елена ладгьылбжьаха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">афунтқәа Иԥшьоу Елена ладгьылбжьаха</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="SHP"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7294,6 +7699,12 @@
     <t xml:space="preserve">фунта Фолклендских островов</t>
   </si>
   <si>
+    <t xml:space="preserve">афунт Фолклендтәи ад-хақәа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">афунтқәа Фолклендтәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="FKP"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7357,6 +7768,12 @@
     <t xml:space="preserve">хорватской куны</t>
   </si>
   <si>
+    <t xml:space="preserve">хорватиатәи акуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хорватиатәи акунақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="HRK"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7369,6 +7786,25 @@
     <t xml:space="preserve">Хорватский динар</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">хорватиатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> адинар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;currency type="HRD"&gt;&lt;displayName&gt;</t>
   </si>
   <si>
@@ -7493,6 +7929,28 @@
   </si>
   <si>
     <t xml:space="preserve">чешской кроны</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">чехиатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> акрона</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">чехиатәи акронақәа</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;currency type="CZK"&gt;&lt;displayName&gt;</t>
@@ -8020,6 +8478,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -8038,12 +8497,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -8055,6 +8508,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -8111,7 +8569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8132,23 +8590,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8161,37 +8615,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -8262,18 +8685,18 @@
   </sheetPr>
   <dimension ref="A1:G1124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A919" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C927" activeCellId="0" sqref="C927"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1033" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1042" activeCellId="0" sqref="C1042"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8441,7 +8864,7 @@
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4"/>
@@ -9397,7 +9820,7 @@
       <c r="A81" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C81" s="4"/>
@@ -10854,7 +11277,7 @@
       <c r="A183" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>442</v>
       </c>
       <c r="C183" s="4"/>
@@ -10926,7 +11349,7 @@
       <c r="A189" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C189" s="4"/>
@@ -10938,7 +11361,7 @@
       <c r="A190" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>456</v>
       </c>
       <c r="C190" s="4"/>
@@ -10987,7 +11410,7 @@
       <c r="A193" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C193" s="4"/>
@@ -11642,7 +12065,7 @@
       <c r="A239" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C239" s="4"/>
@@ -11836,7 +12259,7 @@
       <c r="A253" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="3" t="s">
         <v>610</v>
       </c>
       <c r="C253" s="4"/>
@@ -12473,7 +12896,7 @@
       <c r="A295" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="1" t="s">
         <v>731</v>
       </c>
       <c r="C295" s="2"/>
@@ -12497,7 +12920,7 @@
       <c r="A297" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="1" t="s">
         <v>735</v>
       </c>
       <c r="C297" s="2"/>
@@ -12780,7 +13203,7 @@
       <c r="A317" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="B317" s="3" t="s">
         <v>784</v>
       </c>
       <c r="C317" s="4"/>
@@ -12792,7 +13215,7 @@
       <c r="A318" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="B318" s="3" t="s">
         <v>786</v>
       </c>
       <c r="C318" s="4"/>
@@ -12804,7 +13227,7 @@
       <c r="A319" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="B319" s="3" t="s">
         <v>788</v>
       </c>
       <c r="C319" s="4"/>
@@ -12816,7 +13239,7 @@
       <c r="A320" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B320" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C320" s="4"/>
@@ -13527,7 +13950,7 @@
       <c r="B372" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C372" s="5" t="s">
         <v>918</v>
       </c>
       <c r="D372" s="0" t="s">
@@ -14112,7 +14535,7 @@
       <c r="F415" s="0" t="s">
         <v>1019</v>
       </c>
-      <c r="G415" s="7" t="s">
+      <c r="G415" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14388,7 +14811,7 @@
       <c r="C434" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="D434" s="7" t="s">
+      <c r="D434" s="5" t="s">
         <v>1070</v>
       </c>
       <c r="E434" s="0" t="s">
@@ -14405,7 +14828,7 @@
       <c r="A435" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B435" s="6" t="s">
+      <c r="B435" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="C435" s="2"/>
@@ -14417,7 +14840,7 @@
       <c r="A436" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B436" s="6" t="s">
+      <c r="B436" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="C436" s="2"/>
@@ -14453,7 +14876,7 @@
       <c r="A439" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B439" s="6" t="s">
+      <c r="B439" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="C439" s="2"/>
@@ -14513,7 +14936,7 @@
       <c r="A444" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="B444" s="3" t="s">
         <v>1091</v>
       </c>
       <c r="C444" s="4"/>
@@ -15335,7 +15758,7 @@
       <c r="A503" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="B503" s="5" t="s">
+      <c r="B503" s="3" t="s">
         <v>1236</v>
       </c>
       <c r="C503" s="4"/>
@@ -15585,7 +16008,7 @@
       <c r="A520" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="B520" s="6" t="s">
+      <c r="B520" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="C520" s="2"/>
@@ -16040,7 +16463,7 @@
       <c r="A553" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="B553" s="5" t="s">
+      <c r="B553" s="3" t="s">
         <v>1355</v>
       </c>
       <c r="C553" s="4"/>
@@ -16560,7 +16983,7 @@
       <c r="A590" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="B590" s="5" t="s">
+      <c r="B590" s="3" t="s">
         <v>1447</v>
       </c>
       <c r="C590" s="4"/>
@@ -17257,7 +17680,7 @@
       <c r="A643" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="B643" s="8" t="s">
+      <c r="B643" s="6" t="s">
         <v>1565</v>
       </c>
       <c r="C643" s="2"/>
@@ -17342,7 +17765,7 @@
       <c r="A649" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="B649" s="8" t="s">
+      <c r="B649" s="6" t="s">
         <v>1580</v>
       </c>
       <c r="C649" s="2"/>
@@ -17510,7 +17933,7 @@
       <c r="A661" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="B661" s="6" t="s">
+      <c r="B661" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="C661" s="2"/>
@@ -17522,7 +17945,7 @@
       <c r="A662" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="B662" s="6" t="s">
+      <c r="B662" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="C662" s="2"/>
@@ -17732,7 +18155,7 @@
       <c r="C675" s="0" t="s">
         <v>1652</v>
       </c>
-      <c r="D675" s="7" t="s">
+      <c r="D675" s="5" t="s">
         <v>1653</v>
       </c>
       <c r="E675" s="0" t="s">
@@ -17964,7 +18387,7 @@
       <c r="A693" s="3" t="s">
         <v>1692</v>
       </c>
-      <c r="B693" s="5" t="s">
+      <c r="B693" s="3" t="s">
         <v>1693</v>
       </c>
       <c r="C693" s="4"/>
@@ -17976,7 +18399,7 @@
       <c r="A694" s="3" t="s">
         <v>1694</v>
       </c>
-      <c r="B694" s="5" t="s">
+      <c r="B694" s="3" t="s">
         <v>1695</v>
       </c>
       <c r="C694" s="4"/>
@@ -18107,7 +18530,7 @@
       <c r="A704" s="3" t="s">
         <v>1716</v>
       </c>
-      <c r="B704" s="5" t="s">
+      <c r="B704" s="3" t="s">
         <v>1717</v>
       </c>
       <c r="C704" s="4"/>
@@ -18191,7 +18614,7 @@
       <c r="A711" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="B711" s="5" t="s">
+      <c r="B711" s="3" t="s">
         <v>1731</v>
       </c>
       <c r="C711" s="4"/>
@@ -18465,7 +18888,7 @@
       <c r="A730" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="B730" s="6" t="s">
+      <c r="B730" s="1" t="s">
         <v>1778</v>
       </c>
       <c r="C730" s="2"/>
@@ -18848,7 +19271,7 @@
       <c r="A758" s="3" t="s">
         <v>1847</v>
       </c>
-      <c r="B758" s="5" t="s">
+      <c r="B758" s="3" t="s">
         <v>1848</v>
       </c>
       <c r="C758" s="4"/>
@@ -19403,7 +19826,7 @@
       <c r="A799" s="0" t="s">
         <v>1942</v>
       </c>
-      <c r="C799" s="7" t="s">
+      <c r="C799" s="5" t="s">
         <v>1943</v>
       </c>
       <c r="E799" s="0" t="s">
@@ -19429,7 +19852,7 @@
       <c r="A801" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="B801" s="5" t="s">
+      <c r="B801" s="3" t="s">
         <v>1948</v>
       </c>
       <c r="C801" s="4"/>
@@ -19441,7 +19864,7 @@
       <c r="A802" s="3" t="s">
         <v>1949</v>
       </c>
-      <c r="B802" s="5" t="s">
+      <c r="B802" s="3" t="s">
         <v>1950</v>
       </c>
       <c r="C802" s="4"/>
@@ -19453,7 +19876,7 @@
       <c r="A803" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="B803" s="5" t="s">
+      <c r="B803" s="3" t="s">
         <v>1952</v>
       </c>
       <c r="C803" s="4"/>
@@ -19465,7 +19888,7 @@
       <c r="A804" s="3" t="s">
         <v>1953</v>
       </c>
-      <c r="B804" s="5" t="s">
+      <c r="B804" s="3" t="s">
         <v>1954</v>
       </c>
       <c r="C804" s="4"/>
@@ -19477,7 +19900,7 @@
       <c r="A805" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="B805" s="6" t="s">
+      <c r="B805" s="1" t="s">
         <v>1956</v>
       </c>
       <c r="C805" s="2"/>
@@ -19489,7 +19912,7 @@
       <c r="A806" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="B806" s="6" t="s">
+      <c r="B806" s="1" t="s">
         <v>1958</v>
       </c>
       <c r="C806" s="2"/>
@@ -19501,7 +19924,7 @@
       <c r="A807" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="B807" s="6" t="s">
+      <c r="B807" s="1" t="s">
         <v>1960</v>
       </c>
       <c r="C807" s="2"/>
@@ -19537,7 +19960,7 @@
       <c r="A810" s="3" t="s">
         <v>1965</v>
       </c>
-      <c r="B810" s="5" t="s">
+      <c r="B810" s="3" t="s">
         <v>1966</v>
       </c>
       <c r="C810" s="4"/>
@@ -19549,7 +19972,7 @@
       <c r="A811" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="B811" s="6" t="s">
+      <c r="B811" s="1" t="s">
         <v>1968</v>
       </c>
       <c r="C811" s="2"/>
@@ -19561,7 +19984,7 @@
       <c r="A812" s="1" t="s">
         <v>1969</v>
       </c>
-      <c r="B812" s="6" t="s">
+      <c r="B812" s="1" t="s">
         <v>1970</v>
       </c>
       <c r="C812" s="2"/>
@@ -19585,7 +20008,7 @@
       <c r="A814" s="3" t="s">
         <v>1973</v>
       </c>
-      <c r="B814" s="9" t="s">
+      <c r="B814" s="7" t="s">
         <v>1974</v>
       </c>
       <c r="C814" s="4"/>
@@ -19655,7 +20078,7 @@
       <c r="A818" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="B818" s="5" t="s">
+      <c r="B818" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="C818" s="4"/>
@@ -20174,7 +20597,7 @@
       <c r="A858" s="3" t="s">
         <v>2074</v>
       </c>
-      <c r="B858" s="5" t="s">
+      <c r="B858" s="3" t="s">
         <v>2075</v>
       </c>
       <c r="C858" s="4"/>
@@ -20269,7 +20692,7 @@
       <c r="A865" s="1" t="s">
         <v>2090</v>
       </c>
-      <c r="B865" s="8" t="s">
+      <c r="B865" s="6" t="s">
         <v>2091</v>
       </c>
       <c r="C865" s="2"/>
@@ -20281,7 +20704,7 @@
       <c r="A866" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="B866" s="6" t="s">
+      <c r="B866" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="C866" s="2"/>
@@ -20293,7 +20716,7 @@
       <c r="A867" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="B867" s="6" t="s">
+      <c r="B867" s="1" t="s">
         <v>2095</v>
       </c>
       <c r="C867" s="2"/>
@@ -20541,7 +20964,7 @@
       <c r="C886" s="0" t="s">
         <v>2140</v>
       </c>
-      <c r="D886" s="7" t="s">
+      <c r="D886" s="5" t="s">
         <v>2141</v>
       </c>
       <c r="E886" s="0" t="s">
@@ -20735,7 +21158,7 @@
       <c r="C900" s="0" t="s">
         <v>2174</v>
       </c>
-      <c r="D900" s="7" t="s">
+      <c r="D900" s="5" t="s">
         <v>2175</v>
       </c>
       <c r="E900" s="0" t="s">
@@ -20770,7 +21193,7 @@
       <c r="C902" s="0" t="s">
         <v>2180</v>
       </c>
-      <c r="D902" s="7" t="s">
+      <c r="D902" s="5" t="s">
         <v>2181</v>
       </c>
       <c r="E902" s="0" t="s">
@@ -21089,10 +21512,10 @@
         <v>2234</v>
       </c>
       <c r="C927" s="0" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="E927" s="0" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="F927" s="0" t="s">
         <v>3</v>
@@ -21100,10 +21523,10 @@
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -21112,10 +21535,10 @@
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="3" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -21124,10 +21547,10 @@
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -21136,10 +21559,10 @@
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -21148,10 +21571,10 @@
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="3" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -21160,10 +21583,10 @@
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="3" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -21172,10 +21595,10 @@
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -21184,19 +21607,19 @@
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="C935" s="0" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D935" s="0" t="s">
-        <v>2248</v>
+        <v>2250</v>
+      </c>
+      <c r="D935" s="8" t="s">
+        <v>2251</v>
       </c>
       <c r="E935" s="0" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="F935" s="0" t="s">
         <v>23</v>
@@ -21207,10 +21630,10 @@
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -21219,10 +21642,10 @@
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="3" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
@@ -21231,10 +21654,10 @@
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="3" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
@@ -21243,10 +21666,10 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="3" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
@@ -21255,10 +21678,10 @@
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -21267,10 +21690,10 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -21279,10 +21702,10 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="3" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
@@ -21291,10 +21714,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -21303,10 +21726,10 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -21315,10 +21738,10 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -21327,10 +21750,10 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="3" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
@@ -21339,19 +21762,19 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="C947" s="0" t="s">
-        <v>2270</v>
-      </c>
-      <c r="D947" s="0" t="s">
-        <v>2271</v>
+        <v>2275</v>
+      </c>
+      <c r="D947" s="8" t="s">
+        <v>2276</v>
       </c>
       <c r="E947" s="0" t="s">
-        <v>2272</v>
+        <v>2277</v>
       </c>
       <c r="F947" s="0" t="s">
         <v>23</v>
@@ -21362,19 +21785,19 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>2273</v>
+        <v>2278</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C948" s="0" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D948" s="0" t="s">
-        <v>2274</v>
+        <v>2279</v>
+      </c>
+      <c r="C948" s="8" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D948" s="8" t="s">
+        <v>2281</v>
       </c>
       <c r="E948" s="0" t="s">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="F948" s="0" t="s">
         <v>23</v>
@@ -21385,19 +21808,19 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C949" s="0" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D949" s="0" t="s">
-        <v>2277</v>
+        <v>2284</v>
+      </c>
+      <c r="C949" s="8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D949" s="8" t="s">
+        <v>2286</v>
       </c>
       <c r="E949" s="0" t="s">
-        <v>2278</v>
+        <v>2287</v>
       </c>
       <c r="F949" s="0" t="s">
         <v>23</v>
@@ -21408,10 +21831,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>2279</v>
+        <v>2288</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>2280</v>
+        <v>2289</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -21420,10 +21843,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="3" t="s">
-        <v>2281</v>
+        <v>2290</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>2282</v>
+        <v>2291</v>
       </c>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
@@ -21432,10 +21855,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="s">
-        <v>2283</v>
+        <v>2292</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>2284</v>
+        <v>2293</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -21444,13 +21867,13 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C953" s="0" t="s">
-        <v>2285</v>
+        <v>2294</v>
+      </c>
+      <c r="C953" s="8" t="s">
+        <v>2295</v>
       </c>
       <c r="E953" s="0" t="s">
-        <v>2286</v>
+        <v>2296</v>
       </c>
       <c r="F953" s="0" t="s">
         <v>3</v>
@@ -21458,10 +21881,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
-        <v>2287</v>
+        <v>2297</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>2288</v>
+        <v>2298</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -21470,10 +21893,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="3" t="s">
-        <v>2289</v>
+        <v>2299</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2290</v>
+        <v>2300</v>
       </c>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
@@ -21482,10 +21905,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>2291</v>
+        <v>2301</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>2292</v>
+        <v>2302</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -21494,10 +21917,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="3" t="s">
-        <v>2293</v>
+        <v>2303</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2293</v>
+        <v>2303</v>
       </c>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
@@ -21506,19 +21929,19 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>2294</v>
+        <v>2304</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>2295</v>
+        <v>2305</v>
       </c>
       <c r="C958" s="0" t="s">
-        <v>2294</v>
+        <v>2306</v>
       </c>
       <c r="D958" s="0" t="s">
-        <v>2295</v>
+        <v>2307</v>
       </c>
       <c r="E958" s="0" t="s">
-        <v>2296</v>
+        <v>2308</v>
       </c>
       <c r="F958" s="0" t="s">
         <v>23</v>
@@ -21529,10 +21952,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
-        <v>2297</v>
+        <v>2309</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>2298</v>
+        <v>2310</v>
       </c>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
@@ -21541,10 +21964,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="s">
-        <v>2299</v>
+        <v>2311</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>2300</v>
+        <v>2312</v>
       </c>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -21553,10 +21976,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="3" t="s">
-        <v>2301</v>
+        <v>2313</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>2302</v>
+        <v>2314</v>
       </c>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
@@ -21565,10 +21988,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="s">
-        <v>2303</v>
+        <v>2315</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>2304</v>
+        <v>2316</v>
       </c>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
@@ -21577,19 +22000,19 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>2305</v>
+        <v>2317</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C963" s="0" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D963" s="0" t="s">
-        <v>2306</v>
+        <v>2318</v>
+      </c>
+      <c r="C963" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D963" s="8" t="s">
+        <v>2320</v>
       </c>
       <c r="E963" s="0" t="s">
-        <v>2307</v>
+        <v>2321</v>
       </c>
       <c r="F963" s="0" t="s">
         <v>23</v>
@@ -21600,10 +22023,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="s">
-        <v>2308</v>
+        <v>2322</v>
       </c>
       <c r="B964" s="1" t="s">
-        <v>2309</v>
+        <v>2323</v>
       </c>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
@@ -21612,10 +22035,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="3" t="s">
-        <v>2310</v>
+        <v>2324</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>2310</v>
+        <v>2324</v>
       </c>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
@@ -21624,19 +22047,19 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>2311</v>
+        <v>2325</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>2312</v>
+        <v>2326</v>
       </c>
       <c r="C966" s="0" t="s">
-        <v>2311</v>
-      </c>
-      <c r="D966" s="0" t="s">
-        <v>2312</v>
+        <v>2327</v>
+      </c>
+      <c r="D966" s="8" t="s">
+        <v>2328</v>
       </c>
       <c r="E966" s="0" t="s">
-        <v>2313</v>
+        <v>2329</v>
       </c>
       <c r="F966" s="0" t="s">
         <v>23</v>
@@ -21647,10 +22070,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>2314</v>
+        <v>2330</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>2315</v>
+        <v>2331</v>
       </c>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
@@ -21659,10 +22082,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="s">
-        <v>2316</v>
+        <v>2332</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>2317</v>
+        <v>2333</v>
       </c>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -21671,10 +22094,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="3" t="s">
-        <v>2318</v>
+        <v>2334</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>2319</v>
+        <v>2335</v>
       </c>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
@@ -21683,10 +22106,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
-        <v>2320</v>
+        <v>2336</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>2321</v>
+        <v>2337</v>
       </c>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
@@ -21695,10 +22118,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="3" t="s">
-        <v>2322</v>
+        <v>2338</v>
       </c>
       <c r="B971" s="3" t="s">
-        <v>2323</v>
+        <v>2339</v>
       </c>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
@@ -21707,19 +22130,19 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>2325</v>
+        <v>2341</v>
       </c>
       <c r="C972" s="0" t="s">
-        <v>2324</v>
-      </c>
-      <c r="D972" s="0" t="s">
-        <v>2325</v>
+        <v>2342</v>
+      </c>
+      <c r="D972" s="8" t="s">
+        <v>2343</v>
       </c>
       <c r="E972" s="0" t="s">
-        <v>2326</v>
+        <v>2344</v>
       </c>
       <c r="F972" s="0" t="s">
         <v>23</v>
@@ -21730,13 +22153,13 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>2327</v>
-      </c>
-      <c r="C973" s="0" t="s">
-        <v>2327</v>
+        <v>2345</v>
+      </c>
+      <c r="C973" s="8" t="s">
+        <v>2346</v>
       </c>
       <c r="E973" s="0" t="s">
-        <v>2328</v>
+        <v>2347</v>
       </c>
       <c r="F973" s="0" t="s">
         <v>3</v>
@@ -21744,13 +22167,13 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>2329</v>
-      </c>
-      <c r="C974" s="0" t="s">
-        <v>2329</v>
+        <v>2348</v>
+      </c>
+      <c r="C974" s="8" t="s">
+        <v>2349</v>
       </c>
       <c r="E974" s="0" t="s">
-        <v>2330</v>
+        <v>2350</v>
       </c>
       <c r="F974" s="0" t="s">
         <v>3</v>
@@ -21758,13 +22181,13 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>2331</v>
+        <v>2351</v>
       </c>
       <c r="C975" s="0" t="s">
-        <v>2331</v>
+        <v>2352</v>
       </c>
       <c r="E975" s="0" t="s">
-        <v>2332</v>
+        <v>2353</v>
       </c>
       <c r="F975" s="0" t="s">
         <v>3</v>
@@ -21772,10 +22195,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="s">
-        <v>2333</v>
+        <v>2354</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>2334</v>
+        <v>2355</v>
       </c>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
@@ -21784,10 +22207,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="s">
-        <v>2335</v>
+        <v>2356</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>2336</v>
+        <v>2357</v>
       </c>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -21796,10 +22219,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="3" t="s">
-        <v>2337</v>
+        <v>2358</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>2338</v>
+        <v>2359</v>
       </c>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
@@ -21808,10 +22231,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="s">
-        <v>2339</v>
+        <v>2360</v>
       </c>
       <c r="B979" s="1" t="s">
-        <v>2340</v>
+        <v>2361</v>
       </c>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
@@ -21820,10 +22243,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="3" t="s">
-        <v>2341</v>
+        <v>2362</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>2342</v>
+        <v>2363</v>
       </c>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
@@ -21832,10 +22255,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="3" t="s">
-        <v>2343</v>
+        <v>2364</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>2344</v>
+        <v>2365</v>
       </c>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
@@ -21844,10 +22267,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
-        <v>2345</v>
+        <v>2366</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>2346</v>
+        <v>2367</v>
       </c>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
@@ -21856,10 +22279,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
-        <v>2347</v>
+        <v>2368</v>
       </c>
       <c r="B983" s="1" t="s">
-        <v>2348</v>
+        <v>2369</v>
       </c>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
@@ -21868,19 +22291,19 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>2349</v>
+        <v>2370</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>2350</v>
-      </c>
-      <c r="C984" s="0" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D984" s="0" t="s">
-        <v>2350</v>
+        <v>2371</v>
+      </c>
+      <c r="C984" s="8" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D984" s="8" t="s">
+        <v>2373</v>
       </c>
       <c r="E984" s="0" t="s">
-        <v>2351</v>
+        <v>2374</v>
       </c>
       <c r="F984" s="0" t="s">
         <v>23</v>
@@ -21891,10 +22314,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="3" t="s">
-        <v>2352</v>
+        <v>2375</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>2353</v>
+        <v>2376</v>
       </c>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
@@ -21903,13 +22326,13 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>2354</v>
+        <v>2377</v>
       </c>
       <c r="C986" s="0" t="s">
-        <v>2354</v>
+        <v>2378</v>
       </c>
       <c r="E986" s="0" t="s">
-        <v>2355</v>
+        <v>2379</v>
       </c>
       <c r="F986" s="0" t="s">
         <v>3</v>
@@ -21917,10 +22340,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
-        <v>2356</v>
+        <v>2380</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>2357</v>
+        <v>2381</v>
       </c>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -21929,10 +22352,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="3" t="s">
-        <v>2358</v>
+        <v>2382</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>2359</v>
+        <v>2383</v>
       </c>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
@@ -21941,13 +22364,13 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>2360</v>
-      </c>
-      <c r="C989" s="0" t="s">
-        <v>2360</v>
+        <v>2384</v>
+      </c>
+      <c r="C989" s="8" t="s">
+        <v>2385</v>
       </c>
       <c r="E989" s="0" t="s">
-        <v>2361</v>
+        <v>2386</v>
       </c>
       <c r="F989" s="0" t="s">
         <v>3</v>
@@ -21955,10 +22378,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
-        <v>2362</v>
+        <v>2387</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>2363</v>
+        <v>2388</v>
       </c>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
@@ -21967,10 +22390,10 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
-        <v>2364</v>
+        <v>2389</v>
       </c>
       <c r="B991" s="1" t="s">
-        <v>2365</v>
+        <v>2390</v>
       </c>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
@@ -21979,10 +22402,10 @@
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="3" t="s">
-        <v>2366</v>
+        <v>2391</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>2367</v>
+        <v>2392</v>
       </c>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
@@ -21991,10 +22414,10 @@
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="3" t="s">
-        <v>2368</v>
+        <v>2393</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>2369</v>
+        <v>2394</v>
       </c>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
@@ -22003,10 +22426,10 @@
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
-        <v>2370</v>
+        <v>2395</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>2371</v>
+        <v>2396</v>
       </c>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -22015,19 +22438,19 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>2372</v>
+        <v>2397</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>2373</v>
+        <v>2398</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>2372</v>
+        <v>2399</v>
       </c>
       <c r="D995" s="0" t="s">
-        <v>2373</v>
+        <v>2400</v>
       </c>
       <c r="E995" s="0" t="s">
-        <v>2374</v>
+        <v>2401</v>
       </c>
       <c r="F995" s="0" t="s">
         <v>23</v>
@@ -22038,19 +22461,19 @@
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>2375</v>
+        <v>2402</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>2376</v>
-      </c>
-      <c r="C996" s="0" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D996" s="0" t="s">
-        <v>2376</v>
+        <v>2403</v>
+      </c>
+      <c r="C996" s="8" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D996" s="8" t="s">
+        <v>2405</v>
       </c>
       <c r="E996" s="0" t="s">
-        <v>2377</v>
+        <v>2406</v>
       </c>
       <c r="F996" s="0" t="s">
         <v>23</v>
@@ -22061,19 +22484,19 @@
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>2378</v>
+        <v>2407</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C997" s="0" t="s">
-        <v>2378</v>
-      </c>
-      <c r="D997" s="0" t="s">
-        <v>2379</v>
+        <v>2408</v>
+      </c>
+      <c r="C997" s="8" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D997" s="8" t="s">
+        <v>2410</v>
       </c>
       <c r="E997" s="0" t="s">
-        <v>2380</v>
+        <v>2411</v>
       </c>
       <c r="F997" s="0" t="s">
         <v>23</v>
@@ -22084,19 +22507,19 @@
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>2381</v>
+        <v>2412</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C998" s="0" t="s">
-        <v>2381</v>
-      </c>
-      <c r="D998" s="0" t="s">
-        <v>2382</v>
+        <v>2413</v>
+      </c>
+      <c r="C998" s="8" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D998" s="8" t="s">
+        <v>2415</v>
       </c>
       <c r="E998" s="0" t="s">
-        <v>2383</v>
+        <v>2416</v>
       </c>
       <c r="F998" s="0" t="s">
         <v>23</v>
@@ -22107,10 +22530,10 @@
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="3" t="s">
-        <v>2384</v>
+        <v>2417</v>
       </c>
       <c r="B999" s="3" t="s">
-        <v>2385</v>
+        <v>2418</v>
       </c>
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
@@ -22119,10 +22542,10 @@
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="3" t="s">
-        <v>2386</v>
+        <v>2419</v>
       </c>
       <c r="B1000" s="3" t="s">
-        <v>2387</v>
+        <v>2420</v>
       </c>
       <c r="C1000" s="4"/>
       <c r="D1000" s="4"/>
@@ -22131,10 +22554,10 @@
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="3" t="s">
-        <v>2388</v>
+        <v>2421</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>2389</v>
+        <v>2422</v>
       </c>
       <c r="C1001" s="4"/>
       <c r="D1001" s="4"/>
@@ -22143,10 +22566,10 @@
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="3" t="s">
-        <v>2390</v>
+        <v>2423</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>2391</v>
+        <v>2424</v>
       </c>
       <c r="C1002" s="4"/>
       <c r="D1002" s="4"/>
@@ -22155,10 +22578,10 @@
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1" t="s">
-        <v>2392</v>
+        <v>2425</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>2393</v>
+        <v>2426</v>
       </c>
       <c r="C1003" s="2"/>
       <c r="D1003" s="2"/>
@@ -22167,13 +22590,13 @@
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C1004" s="0" t="s">
-        <v>2394</v>
+        <v>2427</v>
+      </c>
+      <c r="C1004" s="8" t="s">
+        <v>2428</v>
       </c>
       <c r="E1004" s="0" t="s">
-        <v>2395</v>
+        <v>2429</v>
       </c>
       <c r="F1004" s="0" t="s">
         <v>3</v>
@@ -22181,13 +22604,13 @@
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>2396</v>
-      </c>
-      <c r="C1005" s="0" t="s">
-        <v>2396</v>
+        <v>2430</v>
+      </c>
+      <c r="C1005" s="8" t="s">
+        <v>2431</v>
       </c>
       <c r="E1005" s="0" t="s">
-        <v>2397</v>
+        <v>2432</v>
       </c>
       <c r="F1005" s="0" t="s">
         <v>3</v>
@@ -22195,19 +22618,19 @@
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>2398</v>
+        <v>2433</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>2399</v>
+        <v>2434</v>
       </c>
       <c r="C1006" s="0" t="s">
-        <v>2398</v>
+        <v>2435</v>
       </c>
       <c r="D1006" s="0" t="s">
-        <v>2399</v>
+        <v>2434</v>
       </c>
       <c r="E1006" s="0" t="s">
-        <v>2400</v>
+        <v>2436</v>
       </c>
       <c r="F1006" s="0" t="s">
         <v>23</v>
@@ -22218,13 +22641,13 @@
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>2401</v>
-      </c>
-      <c r="C1007" s="0" t="s">
-        <v>2401</v>
+        <v>2437</v>
+      </c>
+      <c r="C1007" s="8" t="s">
+        <v>2438</v>
       </c>
       <c r="E1007" s="0" t="s">
-        <v>2402</v>
+        <v>2439</v>
       </c>
       <c r="F1007" s="0" t="s">
         <v>3</v>
@@ -22232,10 +22655,10 @@
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1" t="s">
-        <v>2403</v>
+        <v>2440</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>2404</v>
+        <v>2441</v>
       </c>
       <c r="C1008" s="2"/>
       <c r="D1008" s="2"/>
@@ -22244,10 +22667,10 @@
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1" t="s">
-        <v>2405</v>
+        <v>2442</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>2406</v>
+        <v>2443</v>
       </c>
       <c r="C1009" s="2"/>
       <c r="D1009" s="2"/>
@@ -22256,19 +22679,19 @@
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>2407</v>
+        <v>2444</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>2408</v>
+        <v>2445</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>2407</v>
+        <v>2446</v>
       </c>
       <c r="D1010" s="0" t="s">
-        <v>2408</v>
+        <v>2447</v>
       </c>
       <c r="E1010" s="0" t="s">
-        <v>2409</v>
+        <v>2448</v>
       </c>
       <c r="F1010" s="0" t="s">
         <v>23</v>
@@ -22279,19 +22702,19 @@
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>2410</v>
+        <v>2449</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>2411</v>
+        <v>2450</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>2410</v>
-      </c>
-      <c r="D1011" s="0" t="s">
-        <v>2411</v>
+        <v>2451</v>
+      </c>
+      <c r="D1011" s="8" t="s">
+        <v>2452</v>
       </c>
       <c r="E1011" s="0" t="s">
-        <v>2412</v>
+        <v>2453</v>
       </c>
       <c r="F1011" s="0" t="s">
         <v>23</v>
@@ -22302,10 +22725,10 @@
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1" t="s">
-        <v>2413</v>
+        <v>2454</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>2414</v>
+        <v>2455</v>
       </c>
       <c r="C1012" s="2"/>
       <c r="D1012" s="2"/>
@@ -22314,10 +22737,10 @@
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1" t="s">
-        <v>2415</v>
+        <v>2456</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>2416</v>
+        <v>2457</v>
       </c>
       <c r="C1013" s="2"/>
       <c r="D1013" s="2"/>
@@ -22326,10 +22749,10 @@
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1" t="s">
-        <v>2417</v>
+        <v>2458</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>2418</v>
+        <v>2459</v>
       </c>
       <c r="C1014" s="2"/>
       <c r="D1014" s="2"/>
@@ -22338,10 +22761,10 @@
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1" t="s">
-        <v>2419</v>
+        <v>2460</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>2420</v>
+        <v>2461</v>
       </c>
       <c r="C1015" s="2"/>
       <c r="D1015" s="2"/>
@@ -22350,10 +22773,10 @@
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="1" t="s">
-        <v>2421</v>
+        <v>2462</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>2422</v>
+        <v>2463</v>
       </c>
       <c r="C1016" s="2"/>
       <c r="D1016" s="2"/>
@@ -22362,10 +22785,10 @@
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="1" t="s">
-        <v>2423</v>
+        <v>2464</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>2424</v>
+        <v>2465</v>
       </c>
       <c r="C1017" s="2"/>
       <c r="D1017" s="2"/>
@@ -22374,10 +22797,10 @@
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1" t="s">
-        <v>2425</v>
+        <v>2466</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>2426</v>
+        <v>2467</v>
       </c>
       <c r="C1018" s="2"/>
       <c r="D1018" s="2"/>
@@ -22386,10 +22809,10 @@
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="1" t="s">
-        <v>2427</v>
+        <v>2468</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>2428</v>
+        <v>2469</v>
       </c>
       <c r="C1019" s="2"/>
       <c r="D1019" s="2"/>
@@ -22398,10 +22821,10 @@
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="3" t="s">
-        <v>2429</v>
+        <v>2470</v>
       </c>
       <c r="B1020" s="3" t="s">
-        <v>2430</v>
+        <v>2471</v>
       </c>
       <c r="C1020" s="4"/>
       <c r="D1020" s="4"/>
@@ -22410,19 +22833,19 @@
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>2431</v>
+        <v>2472</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>2432</v>
+        <v>2473</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>2431</v>
-      </c>
-      <c r="D1021" s="0" t="s">
-        <v>2432</v>
+        <v>2474</v>
+      </c>
+      <c r="D1021" s="8" t="s">
+        <v>2475</v>
       </c>
       <c r="E1021" s="0" t="s">
-        <v>2433</v>
+        <v>2476</v>
       </c>
       <c r="F1021" s="0" t="s">
         <v>23</v>
@@ -22433,10 +22856,10 @@
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1" t="s">
-        <v>2434</v>
+        <v>2477</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>2435</v>
+        <v>2478</v>
       </c>
       <c r="C1022" s="2"/>
       <c r="D1022" s="2"/>
@@ -22445,13 +22868,13 @@
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>2436</v>
-      </c>
-      <c r="C1023" s="0" t="s">
-        <v>2436</v>
+        <v>2479</v>
+      </c>
+      <c r="C1023" s="8" t="s">
+        <v>2480</v>
       </c>
       <c r="E1023" s="0" t="s">
-        <v>2437</v>
+        <v>2481</v>
       </c>
       <c r="F1023" s="0" t="s">
         <v>3</v>
@@ -22459,10 +22882,10 @@
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1" t="s">
-        <v>2438</v>
+        <v>2482</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>2439</v>
+        <v>2483</v>
       </c>
       <c r="C1024" s="2"/>
       <c r="D1024" s="2"/>
@@ -22471,10 +22894,10 @@
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1" t="s">
-        <v>2440</v>
+        <v>2484</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>2441</v>
+        <v>2485</v>
       </c>
       <c r="C1025" s="2"/>
       <c r="D1025" s="2"/>
@@ -22483,10 +22906,10 @@
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="3" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B1026" s="5" t="s">
-        <v>2443</v>
+        <v>2486</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>2487</v>
       </c>
       <c r="C1026" s="4"/>
       <c r="D1026" s="4"/>
@@ -22495,10 +22918,10 @@
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="3" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B1027" s="5" t="s">
-        <v>2445</v>
+        <v>2488</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>2489</v>
       </c>
       <c r="C1027" s="4"/>
       <c r="D1027" s="4"/>
@@ -22507,10 +22930,10 @@
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="3" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B1028" s="5" t="s">
-        <v>2447</v>
+        <v>2490</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>2491</v>
       </c>
       <c r="C1028" s="4"/>
       <c r="D1028" s="4"/>
@@ -22519,10 +22942,10 @@
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="3" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B1029" s="5" t="s">
-        <v>2449</v>
+        <v>2492</v>
+      </c>
+      <c r="B1029" s="3" t="s">
+        <v>2493</v>
       </c>
       <c r="C1029" s="4"/>
       <c r="D1029" s="4"/>
@@ -22531,10 +22954,10 @@
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="s">
-        <v>2450</v>
+        <v>2494</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>2451</v>
+        <v>2495</v>
       </c>
       <c r="C1030" s="2"/>
       <c r="D1030" s="2"/>
@@ -22543,10 +22966,10 @@
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="s">
-        <v>2452</v>
+        <v>2496</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>2453</v>
+        <v>2497</v>
       </c>
       <c r="C1031" s="2"/>
       <c r="D1031" s="2"/>
@@ -22555,10 +22978,10 @@
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="s">
-        <v>2454</v>
+        <v>2498</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>2455</v>
+        <v>2499</v>
       </c>
       <c r="C1032" s="2"/>
       <c r="D1032" s="2"/>
@@ -22567,10 +22990,10 @@
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
-        <v>2456</v>
+        <v>2500</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>2457</v>
+        <v>2501</v>
       </c>
       <c r="C1033" s="2"/>
       <c r="D1033" s="2"/>
@@ -22579,10 +23002,10 @@
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1" t="s">
-        <v>2458</v>
+        <v>2502</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>2459</v>
+        <v>2503</v>
       </c>
       <c r="C1034" s="2"/>
       <c r="D1034" s="2"/>
@@ -22591,10 +23014,10 @@
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="3" t="s">
-        <v>2460</v>
+        <v>2504</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>2460</v>
+        <v>2504</v>
       </c>
       <c r="C1035" s="4"/>
       <c r="D1035" s="4"/>
@@ -22603,10 +23026,10 @@
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
-        <v>2461</v>
+        <v>2505</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>2462</v>
+        <v>2506</v>
       </c>
       <c r="C1036" s="2"/>
       <c r="D1036" s="2"/>
@@ -22615,10 +23038,10 @@
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
-        <v>2463</v>
+        <v>2507</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>2464</v>
+        <v>2508</v>
       </c>
       <c r="C1037" s="2"/>
       <c r="D1037" s="2"/>
@@ -22627,10 +23050,10 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>2465</v>
+        <v>2509</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>2466</v>
+        <v>2510</v>
       </c>
       <c r="C1038" s="2"/>
       <c r="D1038" s="2"/>
@@ -22639,10 +23062,10 @@
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="3" t="s">
-        <v>2467</v>
-      </c>
-      <c r="B1039" s="5" t="s">
-        <v>2468</v>
+        <v>2511</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>2512</v>
       </c>
       <c r="C1039" s="4"/>
       <c r="D1039" s="4"/>
@@ -22651,10 +23074,10 @@
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="1" t="s">
-        <v>2469</v>
+        <v>2513</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>2470</v>
+        <v>2514</v>
       </c>
       <c r="C1040" s="2"/>
       <c r="D1040" s="2"/>
@@ -22663,10 +23086,10 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="3" t="s">
-        <v>2471</v>
+        <v>2515</v>
       </c>
       <c r="B1041" s="3" t="s">
-        <v>2472</v>
+        <v>2516</v>
       </c>
       <c r="C1041" s="4"/>
       <c r="D1041" s="4"/>
@@ -22675,13 +23098,13 @@
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>2473</v>
+        <v>2517</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>2473</v>
+        <v>2517</v>
       </c>
       <c r="E1042" s="0" t="s">
-        <v>2474</v>
+        <v>2518</v>
       </c>
       <c r="F1042" s="0" t="s">
         <v>3</v>
@@ -22689,10 +23112,10 @@
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="1" t="s">
-        <v>2475</v>
+        <v>2519</v>
       </c>
       <c r="B1043" s="1" t="s">
-        <v>2476</v>
+        <v>2520</v>
       </c>
       <c r="C1043" s="2"/>
       <c r="D1043" s="2"/>
@@ -22701,19 +23124,19 @@
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>2477</v>
+        <v>2521</v>
       </c>
       <c r="B1044" s="0" t="s">
-        <v>2478</v>
-      </c>
-      <c r="C1044" s="0" t="s">
-        <v>2477</v>
-      </c>
-      <c r="D1044" s="0" t="s">
-        <v>2478</v>
+        <v>2522</v>
+      </c>
+      <c r="C1044" s="8" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D1044" s="8" t="s">
+        <v>2524</v>
       </c>
       <c r="E1044" s="0" t="s">
-        <v>2479</v>
+        <v>2525</v>
       </c>
       <c r="F1044" s="0" t="s">
         <v>23</v>
@@ -22724,10 +23147,10 @@
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="3" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B1045" s="5" t="s">
-        <v>2481</v>
+        <v>2526</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>2527</v>
       </c>
       <c r="C1045" s="4"/>
       <c r="D1045" s="4"/>
@@ -22736,7 +23159,7 @@
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1" t="s">
-        <v>2482</v>
+        <v>2528</v>
       </c>
       <c r="B1046" s="1" t="s">
         <v>174</v>
@@ -22748,10 +23171,10 @@
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
-        <v>2483</v>
+        <v>2529</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>2484</v>
+        <v>2530</v>
       </c>
       <c r="C1047" s="2"/>
       <c r="D1047" s="2"/>
@@ -22760,10 +23183,10 @@
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="1" t="s">
-        <v>2485</v>
+        <v>2531</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>2486</v>
+        <v>2532</v>
       </c>
       <c r="C1048" s="2"/>
       <c r="D1048" s="2"/>
@@ -22772,10 +23195,10 @@
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="3" t="s">
-        <v>2487</v>
+        <v>2533</v>
       </c>
       <c r="B1049" s="3" t="s">
-        <v>2487</v>
+        <v>2533</v>
       </c>
       <c r="C1049" s="4"/>
       <c r="D1049" s="4"/>
@@ -22784,19 +23207,19 @@
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>2488</v>
+        <v>2534</v>
       </c>
       <c r="B1050" s="0" t="s">
-        <v>2489</v>
+        <v>2535</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>2488</v>
+        <v>2534</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>2489</v>
+        <v>2535</v>
       </c>
       <c r="E1050" s="0" t="s">
-        <v>2490</v>
+        <v>2536</v>
       </c>
       <c r="F1050" s="0" t="s">
         <v>23</v>
@@ -22807,10 +23230,10 @@
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1" t="s">
-        <v>2491</v>
+        <v>2537</v>
       </c>
       <c r="B1051" s="1" t="s">
-        <v>2492</v>
+        <v>2538</v>
       </c>
       <c r="C1051" s="2"/>
       <c r="D1051" s="2"/>
@@ -22819,10 +23242,10 @@
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="1" t="s">
-        <v>2493</v>
+        <v>2539</v>
       </c>
       <c r="B1052" s="1" t="s">
-        <v>2494</v>
+        <v>2540</v>
       </c>
       <c r="C1052" s="2"/>
       <c r="D1052" s="2"/>
@@ -22831,10 +23254,10 @@
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="1" t="s">
-        <v>2495</v>
+        <v>2541</v>
       </c>
       <c r="B1053" s="1" t="s">
-        <v>2496</v>
+        <v>2542</v>
       </c>
       <c r="C1053" s="2"/>
       <c r="D1053" s="2"/>
@@ -22843,10 +23266,10 @@
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="1" t="s">
-        <v>2497</v>
+        <v>2543</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>2498</v>
+        <v>2544</v>
       </c>
       <c r="C1054" s="2"/>
       <c r="D1054" s="2"/>
@@ -22855,10 +23278,10 @@
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="1" t="s">
-        <v>2499</v>
+        <v>2545</v>
       </c>
       <c r="B1055" s="1" t="s">
-        <v>2500</v>
+        <v>2546</v>
       </c>
       <c r="C1055" s="2"/>
       <c r="D1055" s="2"/>
@@ -22867,10 +23290,10 @@
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1" t="s">
-        <v>2501</v>
+        <v>2547</v>
       </c>
       <c r="B1056" s="1" t="s">
-        <v>2502</v>
+        <v>2548</v>
       </c>
       <c r="C1056" s="2"/>
       <c r="D1056" s="2"/>
@@ -22879,10 +23302,10 @@
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="1" t="s">
-        <v>2503</v>
+        <v>2549</v>
       </c>
       <c r="B1057" s="1" t="s">
-        <v>2504</v>
+        <v>2550</v>
       </c>
       <c r="C1057" s="2"/>
       <c r="D1057" s="2"/>
@@ -22891,10 +23314,10 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>2505</v>
+        <v>2551</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>2506</v>
+        <v>2552</v>
       </c>
       <c r="C1058" s="2"/>
       <c r="D1058" s="2"/>
@@ -22903,19 +23326,19 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>2507</v>
+        <v>2553</v>
       </c>
       <c r="B1059" s="0" t="s">
-        <v>2508</v>
+        <v>2554</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>2507</v>
+        <v>2553</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>2508</v>
+        <v>2554</v>
       </c>
       <c r="E1059" s="0" t="s">
-        <v>2509</v>
+        <v>2555</v>
       </c>
       <c r="F1059" s="0" t="s">
         <v>23</v>
@@ -22926,10 +23349,10 @@
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="1" t="s">
-        <v>2510</v>
+        <v>2556</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>2511</v>
+        <v>2557</v>
       </c>
       <c r="C1060" s="2"/>
       <c r="D1060" s="2"/>
@@ -22938,10 +23361,10 @@
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="3" t="s">
-        <v>2512</v>
+        <v>2558</v>
       </c>
       <c r="B1061" s="3" t="s">
-        <v>2513</v>
+        <v>2559</v>
       </c>
       <c r="C1061" s="4"/>
       <c r="D1061" s="4"/>
@@ -22950,10 +23373,10 @@
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="1" t="s">
-        <v>2514</v>
+        <v>2560</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>2515</v>
+        <v>2561</v>
       </c>
       <c r="C1062" s="2"/>
       <c r="D1062" s="2"/>
@@ -22962,19 +23385,19 @@
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>2516</v>
+        <v>2562</v>
       </c>
       <c r="B1063" s="0" t="s">
-        <v>2517</v>
+        <v>2563</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>2516</v>
+        <v>2562</v>
       </c>
       <c r="D1063" s="0" t="s">
-        <v>2517</v>
+        <v>2563</v>
       </c>
       <c r="E1063" s="0" t="s">
-        <v>2518</v>
+        <v>2564</v>
       </c>
       <c r="F1063" s="0" t="s">
         <v>23</v>
@@ -22985,10 +23408,10 @@
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="1" t="s">
-        <v>2519</v>
+        <v>2565</v>
       </c>
       <c r="B1064" s="1" t="s">
-        <v>2520</v>
+        <v>2566</v>
       </c>
       <c r="C1064" s="2"/>
       <c r="D1064" s="2"/>
@@ -22997,10 +23420,10 @@
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="3" t="s">
-        <v>2521</v>
+        <v>2567</v>
       </c>
       <c r="B1065" s="3" t="s">
-        <v>2522</v>
+        <v>2568</v>
       </c>
       <c r="C1065" s="4"/>
       <c r="D1065" s="4"/>
@@ -23009,10 +23432,10 @@
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="1" t="s">
-        <v>2523</v>
+        <v>2569</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>2524</v>
+        <v>2570</v>
       </c>
       <c r="C1066" s="2"/>
       <c r="D1066" s="2"/>
@@ -23021,10 +23444,10 @@
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="1" t="s">
-        <v>2525</v>
+        <v>2571</v>
       </c>
       <c r="B1067" s="1" t="s">
-        <v>2526</v>
+        <v>2572</v>
       </c>
       <c r="C1067" s="2"/>
       <c r="D1067" s="2"/>
@@ -23033,10 +23456,10 @@
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="3" t="s">
-        <v>2527</v>
+        <v>2573</v>
       </c>
       <c r="B1068" s="3" t="s">
-        <v>2528</v>
+        <v>2574</v>
       </c>
       <c r="C1068" s="4"/>
       <c r="D1068" s="4"/>
@@ -23045,10 +23468,10 @@
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="3" t="s">
-        <v>2529</v>
+        <v>2575</v>
       </c>
       <c r="B1069" s="3" t="s">
-        <v>2529</v>
+        <v>2575</v>
       </c>
       <c r="C1069" s="4"/>
       <c r="D1069" s="4"/>
@@ -23057,19 +23480,19 @@
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>2530</v>
+        <v>2576</v>
       </c>
       <c r="B1070" s="0" t="s">
-        <v>2531</v>
+        <v>2577</v>
       </c>
       <c r="C1070" s="0" t="s">
-        <v>2530</v>
+        <v>2576</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>2531</v>
+        <v>2577</v>
       </c>
       <c r="E1070" s="0" t="s">
-        <v>2532</v>
+        <v>2578</v>
       </c>
       <c r="F1070" s="0" t="s">
         <v>23</v>
@@ -23080,10 +23503,10 @@
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="1" t="s">
-        <v>2533</v>
+        <v>2579</v>
       </c>
       <c r="B1071" s="1" t="s">
-        <v>2534</v>
+        <v>2580</v>
       </c>
       <c r="C1071" s="2"/>
       <c r="D1071" s="2"/>
@@ -23092,10 +23515,10 @@
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="1" t="s">
-        <v>2535</v>
+        <v>2581</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>2536</v>
+        <v>2582</v>
       </c>
       <c r="C1072" s="2"/>
       <c r="D1072" s="2"/>
@@ -23104,10 +23527,10 @@
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="1" t="s">
-        <v>2537</v>
+        <v>2583</v>
       </c>
       <c r="B1073" s="1" t="s">
-        <v>2538</v>
+        <v>2584</v>
       </c>
       <c r="C1073" s="2"/>
       <c r="D1073" s="2"/>
@@ -23116,10 +23539,10 @@
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
-        <v>2539</v>
+        <v>2585</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>2540</v>
+        <v>2586</v>
       </c>
       <c r="C1074" s="2"/>
       <c r="D1074" s="2"/>
@@ -23128,10 +23551,10 @@
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="3" t="s">
-        <v>2541</v>
+        <v>2587</v>
       </c>
       <c r="B1075" s="3" t="s">
-        <v>2542</v>
+        <v>2588</v>
       </c>
       <c r="C1075" s="4"/>
       <c r="D1075" s="4"/>
@@ -23140,13 +23563,13 @@
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>2543</v>
+        <v>2589</v>
       </c>
       <c r="C1076" s="0" t="s">
-        <v>2543</v>
+        <v>2589</v>
       </c>
       <c r="E1076" s="0" t="s">
-        <v>2544</v>
+        <v>2590</v>
       </c>
       <c r="F1076" s="0" t="s">
         <v>3</v>
@@ -23154,10 +23577,10 @@
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="3" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B1077" s="5" t="s">
-        <v>2546</v>
+        <v>2591</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>2592</v>
       </c>
       <c r="C1077" s="4"/>
       <c r="D1077" s="4"/>
@@ -23166,13 +23589,13 @@
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>2547</v>
+        <v>2593</v>
       </c>
       <c r="C1078" s="0" t="s">
-        <v>2547</v>
+        <v>2593</v>
       </c>
       <c r="E1078" s="0" t="s">
-        <v>2548</v>
+        <v>2594</v>
       </c>
       <c r="F1078" s="0" t="s">
         <v>3</v>
@@ -23180,13 +23603,13 @@
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="s">
-        <v>2549</v>
+        <v>2595</v>
       </c>
       <c r="C1079" s="0" t="s">
-        <v>2549</v>
+        <v>2595</v>
       </c>
       <c r="E1079" s="0" t="s">
-        <v>2550</v>
+        <v>2596</v>
       </c>
       <c r="F1079" s="0" t="s">
         <v>3</v>
@@ -23194,10 +23617,10 @@
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>2551</v>
+        <v>2597</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>2552</v>
+        <v>2598</v>
       </c>
       <c r="C1080" s="2"/>
       <c r="D1080" s="2"/>
@@ -23206,10 +23629,10 @@
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="s">
-        <v>2553</v>
+        <v>2599</v>
       </c>
       <c r="B1081" s="1" t="s">
-        <v>2554</v>
+        <v>2600</v>
       </c>
       <c r="C1081" s="2"/>
       <c r="D1081" s="2"/>
@@ -23218,10 +23641,10 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="1" t="s">
-        <v>2555</v>
+        <v>2601</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>2556</v>
+        <v>2602</v>
       </c>
       <c r="C1082" s="2"/>
       <c r="D1082" s="2"/>
@@ -23230,19 +23653,19 @@
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>2557</v>
+        <v>2603</v>
       </c>
       <c r="B1083" s="0" t="s">
-        <v>2558</v>
+        <v>2604</v>
       </c>
       <c r="C1083" s="0" t="s">
-        <v>2557</v>
+        <v>2603</v>
       </c>
       <c r="D1083" s="0" t="s">
-        <v>2558</v>
+        <v>2604</v>
       </c>
       <c r="E1083" s="0" t="s">
-        <v>2559</v>
+        <v>2605</v>
       </c>
       <c r="F1083" s="0" t="s">
         <v>23</v>
@@ -23253,10 +23676,10 @@
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="3" t="s">
-        <v>2560</v>
+        <v>2606</v>
       </c>
       <c r="B1084" s="3" t="s">
-        <v>2561</v>
+        <v>2607</v>
       </c>
       <c r="C1084" s="4"/>
       <c r="D1084" s="4"/>
@@ -23265,10 +23688,10 @@
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="3" t="s">
-        <v>2562</v>
+        <v>2608</v>
       </c>
       <c r="B1085" s="3" t="s">
-        <v>2563</v>
+        <v>2609</v>
       </c>
       <c r="C1085" s="4"/>
       <c r="D1085" s="4"/>
@@ -23277,19 +23700,19 @@
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="0" t="s">
-        <v>2564</v>
+        <v>2610</v>
       </c>
       <c r="B1086" s="0" t="s">
-        <v>2564</v>
+        <v>2610</v>
       </c>
       <c r="C1086" s="0" t="s">
-        <v>2564</v>
+        <v>2610</v>
       </c>
       <c r="D1086" s="0" t="s">
-        <v>2564</v>
+        <v>2610</v>
       </c>
       <c r="E1086" s="0" t="s">
-        <v>2565</v>
+        <v>2611</v>
       </c>
       <c r="F1086" s="0" t="s">
         <v>23</v>
@@ -23300,13 +23723,13 @@
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>2566</v>
+        <v>2612</v>
       </c>
       <c r="C1087" s="0" t="s">
-        <v>2566</v>
+        <v>2612</v>
       </c>
       <c r="E1087" s="0" t="s">
-        <v>2567</v>
+        <v>2613</v>
       </c>
       <c r="F1087" s="0" t="s">
         <v>3</v>
@@ -23314,10 +23737,10 @@
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="s">
-        <v>2568</v>
+        <v>2614</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>2569</v>
+        <v>2615</v>
       </c>
       <c r="C1088" s="2"/>
       <c r="D1088" s="2"/>
@@ -23326,10 +23749,10 @@
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="3" t="s">
-        <v>2570</v>
+        <v>2616</v>
       </c>
       <c r="B1089" s="3" t="s">
-        <v>2571</v>
+        <v>2617</v>
       </c>
       <c r="C1089" s="4"/>
       <c r="D1089" s="4"/>
@@ -23338,13 +23761,13 @@
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="s">
-        <v>2572</v>
+        <v>2618</v>
       </c>
       <c r="C1090" s="0" t="s">
-        <v>2572</v>
+        <v>2618</v>
       </c>
       <c r="E1090" s="0" t="s">
-        <v>2573</v>
+        <v>2619</v>
       </c>
       <c r="F1090" s="0" t="s">
         <v>3</v>
@@ -23352,10 +23775,10 @@
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="1" t="s">
-        <v>2574</v>
+        <v>2620</v>
       </c>
       <c r="B1091" s="1" t="s">
-        <v>2575</v>
+        <v>2621</v>
       </c>
       <c r="C1091" s="2"/>
       <c r="D1091" s="2"/>
@@ -23364,10 +23787,10 @@
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="1" t="s">
-        <v>2576</v>
+        <v>2622</v>
       </c>
       <c r="B1092" s="1" t="s">
-        <v>2577</v>
+        <v>2623</v>
       </c>
       <c r="C1092" s="2"/>
       <c r="D1092" s="2"/>
@@ -23376,10 +23799,10 @@
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="3" t="s">
-        <v>2578</v>
+        <v>2624</v>
       </c>
       <c r="B1093" s="3" t="s">
-        <v>2579</v>
+        <v>2625</v>
       </c>
       <c r="C1093" s="4"/>
       <c r="D1093" s="4"/>
@@ -23388,19 +23811,19 @@
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="0" t="s">
-        <v>2580</v>
+        <v>2626</v>
       </c>
       <c r="B1094" s="0" t="s">
-        <v>2581</v>
+        <v>2627</v>
       </c>
       <c r="C1094" s="0" t="s">
-        <v>2580</v>
+        <v>2626</v>
       </c>
       <c r="D1094" s="0" t="s">
-        <v>2581</v>
+        <v>2627</v>
       </c>
       <c r="E1094" s="0" t="s">
-        <v>2582</v>
+        <v>2628</v>
       </c>
       <c r="F1094" s="0" t="s">
         <v>23</v>
@@ -23411,10 +23834,10 @@
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="3" t="s">
-        <v>2583</v>
+        <v>2629</v>
       </c>
       <c r="B1095" s="3" t="s">
-        <v>2584</v>
+        <v>2630</v>
       </c>
       <c r="C1095" s="4"/>
       <c r="D1095" s="4"/>
@@ -23423,13 +23846,13 @@
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>2585</v>
+        <v>2631</v>
       </c>
       <c r="C1096" s="0" t="s">
-        <v>2585</v>
+        <v>2631</v>
       </c>
       <c r="E1096" s="0" t="s">
-        <v>2586</v>
+        <v>2632</v>
       </c>
       <c r="F1096" s="0" t="s">
         <v>3</v>
@@ -23437,13 +23860,13 @@
     </row>
     <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>2587</v>
+        <v>2633</v>
       </c>
       <c r="C1097" s="0" t="s">
-        <v>2587</v>
+        <v>2633</v>
       </c>
       <c r="E1097" s="0" t="s">
-        <v>2588</v>
+        <v>2634</v>
       </c>
       <c r="F1097" s="0" t="s">
         <v>3</v>
@@ -23451,13 +23874,13 @@
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>2589</v>
+        <v>2635</v>
       </c>
       <c r="C1098" s="0" t="s">
-        <v>2589</v>
+        <v>2635</v>
       </c>
       <c r="E1098" s="0" t="s">
-        <v>2590</v>
+        <v>2636</v>
       </c>
       <c r="F1098" s="0" t="s">
         <v>3</v>
@@ -23465,10 +23888,10 @@
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="3" t="s">
-        <v>2591</v>
-      </c>
-      <c r="B1099" s="5" t="s">
-        <v>2592</v>
+        <v>2637</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>2638</v>
       </c>
       <c r="C1099" s="4"/>
       <c r="D1099" s="4"/>
@@ -23477,10 +23900,10 @@
     </row>
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="3" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B1100" s="5" t="s">
-        <v>2594</v>
+        <v>2639</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>2640</v>
       </c>
       <c r="C1100" s="4"/>
       <c r="D1100" s="4"/>
@@ -23489,10 +23912,10 @@
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="3" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B1101" s="5" t="s">
-        <v>2596</v>
+        <v>2641</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>2642</v>
       </c>
       <c r="C1101" s="4"/>
       <c r="D1101" s="4"/>
@@ -23501,10 +23924,10 @@
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="3" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B1102" s="5" t="s">
-        <v>2598</v>
+        <v>2643</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>2644</v>
       </c>
       <c r="C1102" s="4"/>
       <c r="D1102" s="4"/>
@@ -23513,10 +23936,10 @@
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="3" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B1103" s="5" t="s">
-        <v>2600</v>
+        <v>2645</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>2646</v>
       </c>
       <c r="C1103" s="4"/>
       <c r="D1103" s="4"/>
@@ -23525,10 +23948,10 @@
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="3" t="s">
-        <v>2601</v>
+        <v>2647</v>
       </c>
       <c r="B1104" s="3" t="s">
-        <v>2602</v>
+        <v>2648</v>
       </c>
       <c r="C1104" s="4"/>
       <c r="D1104" s="4"/>
@@ -23537,10 +23960,10 @@
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="1" t="s">
-        <v>2603</v>
+        <v>2649</v>
       </c>
       <c r="B1105" s="1" t="s">
-        <v>2604</v>
+        <v>2650</v>
       </c>
       <c r="C1105" s="2"/>
       <c r="D1105" s="2"/>
@@ -23549,19 +23972,19 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>2605</v>
+        <v>2651</v>
       </c>
       <c r="B1106" s="0" t="s">
-        <v>2606</v>
+        <v>2652</v>
       </c>
       <c r="C1106" s="0" t="s">
-        <v>2605</v>
+        <v>2651</v>
       </c>
       <c r="D1106" s="0" t="s">
-        <v>2606</v>
+        <v>2652</v>
       </c>
       <c r="E1106" s="0" t="s">
-        <v>2607</v>
+        <v>2653</v>
       </c>
       <c r="F1106" s="0" t="s">
         <v>23</v>
@@ -23572,13 +23995,13 @@
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>2608</v>
+        <v>2654</v>
       </c>
       <c r="C1107" s="0" t="s">
-        <v>2608</v>
+        <v>2654</v>
       </c>
       <c r="E1107" s="0" t="s">
-        <v>2609</v>
+        <v>2655</v>
       </c>
       <c r="F1107" s="0" t="s">
         <v>3</v>
@@ -23586,19 +24009,19 @@
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="s">
-        <v>2610</v>
+        <v>2656</v>
       </c>
       <c r="B1108" s="0" t="s">
-        <v>2611</v>
+        <v>2657</v>
       </c>
       <c r="C1108" s="0" t="s">
-        <v>2610</v>
+        <v>2656</v>
       </c>
       <c r="D1108" s="0" t="s">
-        <v>2611</v>
+        <v>2657</v>
       </c>
       <c r="E1108" s="0" t="s">
-        <v>2612</v>
+        <v>2658</v>
       </c>
       <c r="F1108" s="0" t="s">
         <v>23</v>
@@ -23609,10 +24032,10 @@
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="1" t="s">
-        <v>2613</v>
+        <v>2659</v>
       </c>
       <c r="B1109" s="1" t="s">
-        <v>2614</v>
+        <v>2660</v>
       </c>
       <c r="C1109" s="2"/>
       <c r="D1109" s="2"/>
@@ -23621,10 +24044,10 @@
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="1" t="s">
-        <v>2615</v>
+        <v>2661</v>
       </c>
       <c r="B1110" s="1" t="s">
-        <v>2616</v>
+        <v>2662</v>
       </c>
       <c r="C1110" s="2"/>
       <c r="D1110" s="2"/>
@@ -23633,19 +24056,19 @@
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="0" t="s">
-        <v>2617</v>
+        <v>2663</v>
       </c>
       <c r="B1111" s="0" t="s">
-        <v>2618</v>
+        <v>2664</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>2617</v>
+        <v>2663</v>
       </c>
       <c r="D1111" s="0" t="s">
-        <v>2618</v>
+        <v>2664</v>
       </c>
       <c r="E1111" s="0" t="s">
-        <v>2619</v>
+        <v>2665</v>
       </c>
       <c r="F1111" s="0" t="s">
         <v>23</v>
@@ -23656,10 +24079,10 @@
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="1" t="s">
-        <v>2620</v>
+        <v>2666</v>
       </c>
       <c r="B1112" s="1" t="s">
-        <v>2621</v>
+        <v>2667</v>
       </c>
       <c r="C1112" s="2"/>
       <c r="D1112" s="2"/>
@@ -23668,10 +24091,10 @@
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="1" t="s">
-        <v>2622</v>
+        <v>2668</v>
       </c>
       <c r="B1113" s="1" t="s">
-        <v>2623</v>
+        <v>2669</v>
       </c>
       <c r="C1113" s="2"/>
       <c r="D1113" s="2"/>
@@ -23680,10 +24103,10 @@
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="3" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B1114" s="5" t="s">
-        <v>2625</v>
+        <v>2670</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>2671</v>
       </c>
       <c r="C1114" s="4"/>
       <c r="D1114" s="4"/>
@@ -23692,10 +24115,10 @@
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="1" t="s">
-        <v>2626</v>
+        <v>2672</v>
       </c>
       <c r="B1115" s="1" t="s">
-        <v>2627</v>
+        <v>2673</v>
       </c>
       <c r="C1115" s="2"/>
       <c r="D1115" s="2"/>
@@ -23704,10 +24127,10 @@
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="1" t="s">
-        <v>2628</v>
+        <v>2674</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>2629</v>
+        <v>2675</v>
       </c>
       <c r="C1116" s="2"/>
       <c r="D1116" s="2"/>
@@ -23716,10 +24139,10 @@
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="3" t="s">
-        <v>2630</v>
+        <v>2676</v>
       </c>
       <c r="B1117" s="3" t="s">
-        <v>2631</v>
+        <v>2677</v>
       </c>
       <c r="C1117" s="4"/>
       <c r="D1117" s="4"/>
@@ -23728,19 +24151,19 @@
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="0" t="s">
-        <v>2632</v>
+        <v>2678</v>
       </c>
       <c r="B1118" s="0" t="s">
-        <v>2633</v>
+        <v>2679</v>
       </c>
       <c r="C1118" s="0" t="s">
-        <v>2634</v>
+        <v>2680</v>
       </c>
       <c r="D1118" s="0" t="s">
-        <v>2635</v>
+        <v>2681</v>
       </c>
       <c r="E1118" s="0" t="s">
-        <v>2636</v>
+        <v>2682</v>
       </c>
       <c r="F1118" s="0" t="s">
         <v>23</v>
@@ -23751,10 +24174,10 @@
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="1" t="s">
-        <v>2637</v>
+        <v>2683</v>
       </c>
       <c r="B1119" s="1" t="s">
-        <v>2638</v>
+        <v>2684</v>
       </c>
       <c r="C1119" s="2"/>
       <c r="D1119" s="2"/>
@@ -23763,10 +24186,10 @@
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="1" t="s">
-        <v>2639</v>
+        <v>2685</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>2640</v>
+        <v>2686</v>
       </c>
       <c r="C1120" s="2"/>
       <c r="D1120" s="2"/>
@@ -23775,10 +24198,10 @@
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="1" t="s">
-        <v>2641</v>
+        <v>2687</v>
       </c>
       <c r="B1121" s="1" t="s">
-        <v>2642</v>
+        <v>2688</v>
       </c>
       <c r="C1121" s="2"/>
       <c r="D1121" s="2"/>
@@ -23787,10 +24210,10 @@
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="3" t="s">
-        <v>2643</v>
+        <v>2689</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>2644</v>
+        <v>2690</v>
       </c>
       <c r="C1122" s="4"/>
       <c r="D1122" s="4"/>
@@ -23799,19 +24222,19 @@
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
-        <v>2645</v>
+        <v>2691</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>2646</v>
+        <v>2692</v>
       </c>
       <c r="C1123" s="0" t="s">
-        <v>2645</v>
+        <v>2691</v>
       </c>
       <c r="D1123" s="0" t="s">
-        <v>2646</v>
+        <v>2692</v>
       </c>
       <c r="E1123" s="0" t="s">
-        <v>2647</v>
+        <v>2693</v>
       </c>
       <c r="F1123" s="0" t="s">
         <v>23</v>
@@ -23822,10 +24245,10 @@
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="1" t="s">
-        <v>2648</v>
+        <v>2694</v>
       </c>
       <c r="B1124" s="1" t="s">
-        <v>2649</v>
+        <v>2695</v>
       </c>
       <c r="C1124" s="2"/>
       <c r="D1124" s="2"/>
